--- a/0_Proto_type/4_Firmware/Plasma_Gen_MCU_PinMap_20171227.xlsx
+++ b/0_Proto_type/4_Firmware/Plasma_Gen_MCU_PinMap_20171227.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pin-map" sheetId="6" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin-map'!$B$15:$AB$79</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="385">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1534,6 +1534,14 @@
   </si>
   <si>
     <t>No-PULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1_OUTPUT_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000 이상 변화 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2273,16 +2281,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2318,22 +2332,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2567,7 +2575,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2602,7 +2610,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2813,7 +2821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U58" sqref="U58"/>
     </sheetView>
   </sheetViews>
@@ -2864,10 +2872,10 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="160"/>
+      <c r="C3" s="145"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -2886,10 +2894,10 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="162"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -2909,10 +2917,10 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="162"/>
+      <c r="C5" s="147"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -2934,10 +2942,10 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="161" t="s">
+      <c r="B6" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="162"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2954,10 +2962,10 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="164"/>
+      <c r="C7" s="149"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3026,39 +3034,39 @@
     </row>
     <row r="13" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149" t="s">
+      <c r="C14" s="151"/>
+      <c r="D14" s="151" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="E14" s="151" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="150"/>
-      <c r="G14" s="156" t="s">
+      <c r="F14" s="152"/>
+      <c r="G14" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="157"/>
-      <c r="I14" s="156" t="s">
+      <c r="H14" s="159"/>
+      <c r="I14" s="158" t="s">
         <v>311</v>
       </c>
-      <c r="J14" s="157"/>
-      <c r="K14" s="156" t="s">
+      <c r="J14" s="159"/>
+      <c r="K14" s="158" t="s">
         <v>312</v>
       </c>
-      <c r="L14" s="148"/>
+      <c r="L14" s="150"/>
       <c r="M14" s="23"/>
       <c r="N14" s="38"/>
-      <c r="O14" s="156" t="s">
+      <c r="O14" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148" t="s">
+      <c r="P14" s="150"/>
+      <c r="Q14" s="150" t="s">
         <v>162</v>
       </c>
-      <c r="R14" s="148"/>
+      <c r="R14" s="150"/>
       <c r="S14" s="58"/>
       <c r="T14" s="36"/>
     </row>
@@ -3069,7 +3077,7 @@
       <c r="C15" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="158"/>
+      <c r="D15" s="160"/>
       <c r="E15" s="15" t="s">
         <v>248</v>
       </c>
@@ -3129,10 +3137,10 @@
       <c r="D16" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="151" t="s">
+      <c r="E16" s="153" t="s">
         <v>176</v>
       </c>
-      <c r="F16" s="152"/>
+      <c r="F16" s="154"/>
       <c r="G16" s="52"/>
       <c r="H16" s="71"/>
       <c r="I16" s="81"/>
@@ -3379,10 +3387,10 @@
       <c r="D22" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="153" t="s">
+      <c r="E22" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="154"/>
+      <c r="F22" s="156"/>
       <c r="G22" s="66"/>
       <c r="H22" s="40"/>
       <c r="I22" s="29"/>
@@ -3626,10 +3634,10 @@
       <c r="D27" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="144" t="s">
+      <c r="E27" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="145"/>
+      <c r="F27" s="162"/>
       <c r="G27" s="67"/>
       <c r="H27" s="42"/>
       <c r="I27" s="29"/>
@@ -3655,10 +3663,10 @@
       <c r="D28" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="144" t="s">
+      <c r="E28" s="161" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="145"/>
+      <c r="F28" s="162"/>
       <c r="G28" s="67"/>
       <c r="H28" s="42"/>
       <c r="I28" s="29"/>
@@ -3856,10 +3864,10 @@
       <c r="D33" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="E33" s="144" t="s">
+      <c r="E33" s="161" t="s">
         <v>195</v>
       </c>
-      <c r="F33" s="145"/>
+      <c r="F33" s="162"/>
       <c r="G33" s="67"/>
       <c r="H33" s="42"/>
       <c r="I33" s="29"/>
@@ -3885,10 +3893,10 @@
       <c r="D34" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="144" t="s">
+      <c r="E34" s="161" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="145"/>
+      <c r="F34" s="162"/>
       <c r="G34" s="67"/>
       <c r="H34" s="42"/>
       <c r="I34" s="29"/>
@@ -4521,10 +4529,10 @@
       <c r="D46" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="E46" s="144" t="s">
+      <c r="E46" s="161" t="s">
         <v>195</v>
       </c>
-      <c r="F46" s="145"/>
+      <c r="F46" s="162"/>
       <c r="G46" s="67"/>
       <c r="H46" s="42"/>
       <c r="I46" s="29"/>
@@ -4550,10 +4558,10 @@
       <c r="D47" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="144" t="s">
+      <c r="E47" s="161" t="s">
         <v>176</v>
       </c>
-      <c r="F47" s="145"/>
+      <c r="F47" s="162"/>
       <c r="G47" s="67"/>
       <c r="H47" s="42"/>
       <c r="I47" s="29"/>
@@ -5296,10 +5304,10 @@
       <c r="D62" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="E62" s="144" t="s">
+      <c r="E62" s="161" t="s">
         <v>195</v>
       </c>
-      <c r="F62" s="145"/>
+      <c r="F62" s="162"/>
       <c r="G62" s="67"/>
       <c r="H62" s="42"/>
       <c r="I62" s="29"/>
@@ -5325,10 +5333,10 @@
       <c r="D63" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E63" s="144" t="s">
+      <c r="E63" s="161" t="s">
         <v>176</v>
       </c>
-      <c r="F63" s="145"/>
+      <c r="F63" s="162"/>
       <c r="G63" s="67"/>
       <c r="H63" s="42"/>
       <c r="I63" s="29"/>
@@ -5939,10 +5947,10 @@
       <c r="D75" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="E75" s="144" t="s">
+      <c r="E75" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="F75" s="145"/>
+      <c r="F75" s="162"/>
       <c r="G75" s="67"/>
       <c r="H75" s="65"/>
       <c r="I75" s="30"/>
@@ -6090,10 +6098,10 @@
       <c r="D78" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="144" t="s">
+      <c r="E78" s="161" t="s">
         <v>195</v>
       </c>
-      <c r="F78" s="145"/>
+      <c r="F78" s="162"/>
       <c r="G78" s="67"/>
       <c r="H78" s="42"/>
       <c r="I78" s="29"/>
@@ -6119,10 +6127,10 @@
       <c r="D79" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="E79" s="146" t="s">
+      <c r="E79" s="163" t="s">
         <v>176</v>
       </c>
-      <c r="F79" s="147"/>
+      <c r="F79" s="164"/>
       <c r="G79" s="68"/>
       <c r="H79" s="70"/>
       <c r="I79" s="75"/>
@@ -6189,11 +6197,17 @@
   </sheetData>
   <autoFilter ref="B15:AB79"/>
   <mergeCells count="26">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E16:F16"/>
@@ -6204,17 +6218,11 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6224,10 +6232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L41"/>
+  <dimension ref="B2:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6627,7 +6635,7 @@
         <v>8000000</v>
       </c>
       <c r="I26" s="114">
-        <v>1000000</v>
+        <v>16000000</v>
       </c>
       <c r="J26" s="114" t="s">
         <v>331</v>
@@ -6658,7 +6666,7 @@
       </c>
       <c r="I27" s="118">
         <f>(I21/I26)-1</f>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="J27" s="118"/>
       <c r="K27" s="130" t="s">
@@ -6691,7 +6699,7 @@
         <v>80000</v>
       </c>
       <c r="I30" s="114">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="J30" s="114" t="s">
         <v>331</v>
@@ -6720,7 +6728,7 @@
       </c>
       <c r="I31" s="116">
         <f>INT(I26/I30-1)</f>
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="J31" s="116"/>
       <c r="K31" s="131" t="s">
@@ -6749,7 +6757,7 @@
       </c>
       <c r="I32" s="129">
         <f>I26/(65535+1)</f>
-        <v>15.2587890625</v>
+        <v>244.140625</v>
       </c>
       <c r="J32" s="116" t="s">
         <v>331</v>
@@ -6780,7 +6788,7 @@
       </c>
       <c r="I33" s="129">
         <f>I26/(0+1)</f>
-        <v>1000000</v>
+        <v>16000000</v>
       </c>
       <c r="J33" s="116" t="s">
         <v>331</v>
@@ -6835,29 +6843,53 @@
       </c>
       <c r="I35" s="118">
         <f>INT(I31*I34/100)</f>
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="J35" s="118"/>
       <c r="K35" s="130" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="F36">
-        <f>1/F30*1000</f>
-        <v>1.2500000000000001E-2</v>
+    <row r="37" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="124" t="s">
+        <v>338</v>
+      </c>
+      <c r="E38">
+        <v>70000</v>
+      </c>
+      <c r="F38">
+        <v>70000</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" s="124" t="s">
+        <v>333</v>
+      </c>
+      <c r="E39" s="114">
+        <v>16000000</v>
+      </c>
       <c r="F39">
-        <f>1/F8*1000</f>
-        <v>1.25E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="F41">
-        <f>F36/F39</f>
-        <v>100</v>
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>35710</v>
+      </c>
+      <c r="F40">
+        <v>35710</v>
+      </c>
+      <c r="G40">
+        <v>142.9</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>383</v>
+      </c>
+      <c r="E44" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
